--- a/interplanetary-data/Uranus/U4.xlsx
+++ b/interplanetary-data/Uranus/U4.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1591621788" val="971" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1591621788" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1591621788" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1591621788"/>
+      <pm:revision xmlns:pm="smNativeData" day="1591622562" val="971" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1591622562" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1591622562" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1591622562"/>
     </ext>
   </extLst>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">   %path</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">       Lmass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Acdate</t>
   </si>
   <si>
     <t>Atof</t>
@@ -91,7 +88,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591621788" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591622562" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -106,7 +103,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591621788" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591622562" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -124,22 +121,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1EFD8"/>
+        <fgColor rgb="FFFDE9D9"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591621788" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="100" bgClr="00E1EFD8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591622562" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="100" bgClr="00FDE9D9"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor rgb="FFF79646"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591621788" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="100" bgClr="0070AD47"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591622562" type="1" fgLvl="100" fgClr="00F79646" bgLvl="100" bgClr="00F79646"/>
           </ext>
         </extLst>
       </patternFill>
@@ -161,7 +158,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591621788"/>
+          <pm:border xmlns:pm="smNativeData" id="1591622562"/>
         </ext>
       </extLst>
     </border>
@@ -180,7 +177,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591621788"/>
+          <pm:border xmlns:pm="smNativeData" id="1591622562"/>
         </ext>
       </extLst>
     </border>
@@ -199,7 +196,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591621788"/>
+          <pm:border xmlns:pm="smNativeData" id="1591622562"/>
         </ext>
       </extLst>
     </border>
@@ -216,13 +213,16 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1591621788" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1591622562" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1591621788" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1591622562" count="6">
         <pm:color name="Color 24" rgb="A8D08C"/>
         <pm:color name="Color 25" rgb="70AD47"/>
         <pm:color name="Color 26" rgb="E1EFD8"/>
+        <pm:color name="Color 27" rgb="FABF8F"/>
+        <pm:color name="Color 28" rgb="F79646"/>
+        <pm:color name="Color 29" rgb="FDE9D9"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -230,21 +230,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="res" displayName="res" ref="A1:L92" totalsRowShown="0">
-  <autoFilter ref="A1:L92"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="res" displayName="res" ref="A1:K92" totalsRowShown="0">
+  <autoFilter ref="A1:K92"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="   %path" totalsRowLabel="Total"/>
     <tableColumn id="2" name="LC3"/>
     <tableColumn id="3" name="              Ldec"/>
     <tableColumn id="4" name="       Lmass"/>
-    <tableColumn id="5" name="    Acdate"/>
-    <tableColumn id="6" name="Atof"/>
-    <tableColumn id="7" name="Avinf"/>
-    <tableColumn id="8" name="              Adec"/>
-    <tableColumn id="9" name="     Amass"/>
-    <tableColumn id="10" name="             AoiDM"/>
-    <tableColumn id="11" name="             AoiDV"/>
-    <tableColumn id="12" name="  EPprop"/>
+    <tableColumn id="5" name="Atof"/>
+    <tableColumn id="6" name="Avinf"/>
+    <tableColumn id="7" name="              Adec"/>
+    <tableColumn id="8" name="     Amass"/>
+    <tableColumn id="9" name="             AoiDM"/>
+    <tableColumn id="10" name="             AoiDV"/>
+    <tableColumn id="11" name="  EPprop" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -518,17 +517,16 @@
     <col min="2" max="2" width="12.857143" customWidth="1"/>
     <col min="3" max="3" width="13.142857" customWidth="1"/>
     <col min="4" max="4" width="11.428571" customWidth="1"/>
-    <col min="5" max="5" width="10.714286" customWidth="1"/>
-    <col min="6" max="6" width="10.428571" customWidth="1"/>
-    <col min="7" max="7" width="13.285714" customWidth="1"/>
-    <col min="8" max="8" width="13.571429" customWidth="1"/>
-    <col min="9" max="9" width="10.857143" customWidth="1"/>
-    <col min="10" max="10" width="14.714286" customWidth="1"/>
-    <col min="11" max="11" width="14.142857" customWidth="1"/>
-    <col min="12" max="12" width="10.142857" customWidth="1"/>
+    <col min="5" max="5" width="10.428571" customWidth="1"/>
+    <col min="6" max="6" width="13.285714" customWidth="1"/>
+    <col min="7" max="7" width="13.571429" customWidth="1"/>
+    <col min="8" max="8" width="10.857143" customWidth="1"/>
+    <col min="9" max="9" width="14.714286" customWidth="1"/>
+    <col min="10" max="10" width="14.142857" customWidth="1"/>
+    <col min="11" max="11" width="10.142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,11 +560,8 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="n">
         <v>333357</v>
       </c>
@@ -580,31 +575,28 @@
         <v>6051.96270000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>20410211</v>
+        <v>4017.75</v>
       </c>
       <c r="F2" t="n">
-        <v>4017.75</v>
+        <v>12.4736670000000007</v>
       </c>
       <c r="G2" t="n">
-        <v>12.4736670000000007</v>
+        <v>47.7817179999999979</v>
       </c>
       <c r="H2" t="n">
-        <v>47.7817179999999979</v>
+        <v>1451.74060000000009</v>
       </c>
       <c r="I2" t="n">
-        <v>1451.74060000000009</v>
+        <v>2999.51119999999992</v>
       </c>
       <c r="J2" t="n">
-        <v>2999.51119999999992</v>
+        <v>3.57096599999999986</v>
       </c>
       <c r="K2" t="n">
-        <v>3.57096599999999986</v>
-      </c>
-      <c r="L2" t="n">
-        <v>851.299999999999955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>851.299999999999841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="n">
         <v>333357</v>
       </c>
@@ -618,31 +610,28 @@
         <v>2421.32650000000012</v>
       </c>
       <c r="E3" t="n">
-        <v>20401027</v>
+        <v>3935.11000000000013</v>
       </c>
       <c r="F3" t="n">
-        <v>3935.11000000000013</v>
+        <v>13.3265600000000006</v>
       </c>
       <c r="G3" t="n">
-        <v>13.3265600000000006</v>
+        <v>48.0844960000000015</v>
       </c>
       <c r="H3" t="n">
-        <v>48.0844960000000015</v>
+        <v>114.309399999999997</v>
       </c>
       <c r="I3" t="n">
-        <v>114.309399999999997</v>
+        <v>290.103549999999984</v>
       </c>
       <c r="J3" t="n">
-        <v>290.103549999999984</v>
+        <v>4.02706729999999968</v>
       </c>
       <c r="K3" t="n">
-        <v>4.02706729999999968</v>
-      </c>
-      <c r="L3" t="n">
         <v>1266.90000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:12">
       <c r="A4" t="n">
         <v>333357</v>
       </c>
@@ -656,31 +645,28 @@
         <v>6051.57039999999961</v>
       </c>
       <c r="E4" t="n">
-        <v>20401216</v>
+        <v>4017.75</v>
       </c>
       <c r="F4" t="n">
-        <v>4017.75</v>
+        <v>12.9421730000000004</v>
       </c>
       <c r="G4" t="n">
-        <v>12.9421730000000004</v>
+        <v>47.9009250000000009</v>
       </c>
       <c r="H4" t="n">
-        <v>47.9009250000000009</v>
+        <v>1369.3146999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>1369.3146999999999</v>
+        <v>3168.77880000000005</v>
       </c>
       <c r="J4" t="n">
-        <v>3168.77880000000005</v>
+        <v>3.81884569999999979</v>
       </c>
       <c r="K4" t="n">
-        <v>3.81884569999999979</v>
-      </c>
-      <c r="L4" t="n">
         <v>763.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:12">
       <c r="A5" t="n">
         <v>333357</v>
       </c>
@@ -694,31 +680,28 @@
         <v>3582.27169999999978</v>
       </c>
       <c r="E5" t="n">
-        <v>20420109</v>
+        <v>4017.75</v>
       </c>
       <c r="F5" t="n">
-        <v>4017.75</v>
+        <v>11.9037959999999998</v>
       </c>
       <c r="G5" t="n">
-        <v>11.9037959999999998</v>
+        <v>50.4790369999999982</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4790369999999982</v>
+        <v>771.443099999999845</v>
       </c>
       <c r="I5" t="n">
-        <v>771.443099999999845</v>
+        <v>1386.51160000000004</v>
       </c>
       <c r="J5" t="n">
-        <v>1386.51160000000004</v>
+        <v>3.27848369999999978</v>
       </c>
       <c r="K5" t="n">
-        <v>3.27848369999999978</v>
-      </c>
-      <c r="L5" t="n">
         <v>674.299999999999955</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:12">
       <c r="A6" t="n">
         <v>333357</v>
       </c>
@@ -732,31 +715,28 @@
         <v>3752.06089999999995</v>
       </c>
       <c r="E6" t="n">
-        <v>20410203</v>
+        <v>4017.75</v>
       </c>
       <c r="F6" t="n">
-        <v>4017.75</v>
+        <v>13.5056949999999993</v>
       </c>
       <c r="G6" t="n">
-        <v>13.5056949999999993</v>
+        <v>47.7208159999999992</v>
       </c>
       <c r="H6" t="n">
-        <v>47.7208159999999992</v>
+        <v>662.305899999999951</v>
       </c>
       <c r="I6" t="n">
-        <v>662.305899999999951</v>
+        <v>1754.39679999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>1754.39679999999998</v>
+        <v>4.12556299999999965</v>
       </c>
       <c r="K6" t="n">
-        <v>4.12556299999999965</v>
-      </c>
-      <c r="L6" t="n">
         <v>585.399999999999977</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:12">
       <c r="A7" t="n">
         <v>333357</v>
       </c>
@@ -770,31 +750,28 @@
         <v>4576.39750000000004</v>
       </c>
       <c r="E7" t="n">
-        <v>20410211</v>
+        <v>4017.75</v>
       </c>
       <c r="F7" t="n">
-        <v>4017.75</v>
+        <v>12.5479339999999997</v>
       </c>
       <c r="G7" t="n">
-        <v>12.5479339999999997</v>
+        <v>47.681514</v>
       </c>
       <c r="H7" t="n">
-        <v>47.681514</v>
+        <v>977.450699999999983</v>
       </c>
       <c r="I7" t="n">
-        <v>977.450699999999983</v>
+        <v>2056.31669999999986</v>
       </c>
       <c r="J7" t="n">
-        <v>2056.31669999999986</v>
+        <v>3.60981910000000017</v>
       </c>
       <c r="K7" t="n">
-        <v>3.60981910000000017</v>
-      </c>
-      <c r="L7" t="n">
         <v>792.600000000000023</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:12">
       <c r="A8" t="n">
         <v>333357</v>
       </c>
@@ -808,31 +785,28 @@
         <v>6047.10360000000037</v>
       </c>
       <c r="E8" t="n">
-        <v>20411221</v>
+        <v>4017.75</v>
       </c>
       <c r="F8" t="n">
-        <v>4017.75</v>
+        <v>11.1489600000000006</v>
       </c>
       <c r="G8" t="n">
-        <v>11.1489600000000006</v>
+        <v>47.569386999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>47.569386999999999</v>
+        <v>1824.47330000000011</v>
       </c>
       <c r="I8" t="n">
-        <v>1824.47330000000011</v>
+        <v>2717.51710000000003</v>
       </c>
       <c r="J8" t="n">
-        <v>2717.51710000000003</v>
+        <v>2.9069269000000002</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9069269000000002</v>
-      </c>
-      <c r="L8" t="n">
         <v>755.200000000000045</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:12">
       <c r="A9" t="n">
         <v>333357</v>
       </c>
@@ -846,31 +820,28 @@
         <v>6052.14829999999984</v>
       </c>
       <c r="E9" t="n">
-        <v>20420314</v>
+        <v>4017.75</v>
       </c>
       <c r="F9" t="n">
-        <v>4017.75</v>
+        <v>10.6205010000000009</v>
       </c>
       <c r="G9" t="n">
-        <v>10.6205010000000009</v>
+        <v>47.5308940000000035</v>
       </c>
       <c r="H9" t="n">
-        <v>47.5308940000000035</v>
+        <v>2021.28440000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>2021.28440000000001</v>
+        <v>2632.58500000000004</v>
       </c>
       <c r="J9" t="n">
-        <v>2632.58500000000004</v>
+        <v>2.65798360000000011</v>
       </c>
       <c r="K9" t="n">
-        <v>2.65798360000000011</v>
-      </c>
-      <c r="L9" t="n">
         <v>648.299999999999955</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:12">
       <c r="A10" t="n">
         <v>333357</v>
       </c>
@@ -884,31 +855,28 @@
         <v>6037.40290000000005</v>
       </c>
       <c r="E10" t="n">
-        <v>20411222</v>
+        <v>4017.75</v>
       </c>
       <c r="F10" t="n">
-        <v>4017.75</v>
+        <v>11.1434859999999993</v>
       </c>
       <c r="G10" t="n">
-        <v>11.1434859999999993</v>
+        <v>47.5696149999999989</v>
       </c>
       <c r="H10" t="n">
-        <v>47.5696149999999989</v>
+        <v>1793.77909999999997</v>
       </c>
       <c r="I10" t="n">
-        <v>1793.77909999999997</v>
+        <v>2668.12010000000009</v>
       </c>
       <c r="J10" t="n">
-        <v>2668.12010000000009</v>
+        <v>2.90430030000000006</v>
       </c>
       <c r="K10" t="n">
-        <v>2.90430030000000006</v>
-      </c>
-      <c r="L10" t="n">
         <v>825.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:12">
       <c r="A11" t="n">
         <v>333357</v>
       </c>
@@ -922,31 +890,28 @@
         <v>6052.14090000000033</v>
       </c>
       <c r="E11" t="n">
-        <v>20430214</v>
+        <v>4017.75</v>
       </c>
       <c r="F11" t="n">
-        <v>4017.75</v>
+        <v>9.40732090000000021</v>
       </c>
       <c r="G11" t="n">
-        <v>9.40732090000000021</v>
+        <v>51.3282489999999996</v>
       </c>
       <c r="H11" t="n">
-        <v>51.3282489999999996</v>
+        <v>2289.43409999999994</v>
       </c>
       <c r="I11" t="n">
-        <v>2289.43409999999994</v>
+        <v>2167.48320000000012</v>
       </c>
       <c r="J11" t="n">
-        <v>2167.48320000000012</v>
+        <v>2.12313589999999985</v>
       </c>
       <c r="K11" t="n">
-        <v>2.12313589999999985</v>
-      </c>
-      <c r="L11" t="n">
         <v>845.600000000000023</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:12">
       <c r="A12" t="n">
         <v>333357</v>
       </c>
@@ -960,31 +925,28 @@
         <v>6050.02270000000044</v>
       </c>
       <c r="E12" t="n">
-        <v>20420330</v>
+        <v>4017.75</v>
       </c>
       <c r="F12" t="n">
-        <v>4017.75</v>
+        <v>10.5242509999999996</v>
       </c>
       <c r="G12" t="n">
-        <v>10.5242509999999996</v>
+        <v>47.5327649999999977</v>
       </c>
       <c r="H12" t="n">
-        <v>47.5327649999999977</v>
+        <v>1997.72499999999991</v>
       </c>
       <c r="I12" t="n">
-        <v>1997.72499999999991</v>
+        <v>2538.38020000000006</v>
       </c>
       <c r="J12" t="n">
-        <v>2538.38020000000006</v>
+        <v>2.61366260000000006</v>
       </c>
       <c r="K12" t="n">
-        <v>2.61366260000000006</v>
-      </c>
-      <c r="L12" t="n">
         <v>764.100000000000023</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:12">
       <c r="A13" t="n">
         <v>333357</v>
       </c>
@@ -998,31 +960,28 @@
         <v>5038.33860000000004</v>
       </c>
       <c r="E13" t="n">
-        <v>20410611</v>
+        <v>3652.5</v>
       </c>
       <c r="F13" t="n">
-        <v>3652.5</v>
+        <v>12.5026060000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>12.5026060000000001</v>
+        <v>47.6399770000000018</v>
       </c>
       <c r="H13" t="n">
-        <v>47.6399770000000018</v>
+        <v>1079.8583000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>1079.8583000000001</v>
+        <v>2246.89170000000013</v>
       </c>
       <c r="J13" t="n">
-        <v>2246.89170000000013</v>
+        <v>3.5860856000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5860856000000001</v>
-      </c>
-      <c r="L13" t="n">
         <v>961.600000000000023</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:12">
       <c r="A14" t="n">
         <v>333357</v>
       </c>
@@ -1036,31 +995,28 @@
         <v>3944.18940000000021</v>
       </c>
       <c r="E14" t="n">
-        <v>20420501</v>
+        <v>4017.75</v>
       </c>
       <c r="F14" t="n">
-        <v>4017.75</v>
+        <v>10.3474920000000008</v>
       </c>
       <c r="G14" t="n">
-        <v>10.3474920000000008</v>
+        <v>47.570529999999998</v>
       </c>
       <c r="H14" t="n">
-        <v>47.570529999999998</v>
+        <v>1093.72810000000004</v>
       </c>
       <c r="I14" t="n">
-        <v>1093.72810000000004</v>
+        <v>1327.74190000000021</v>
       </c>
       <c r="J14" t="n">
-        <v>1327.74189999999999</v>
+        <v>2.53310039999999992</v>
       </c>
       <c r="K14" t="n">
-        <v>2.53310039999999992</v>
-      </c>
-      <c r="L14" t="n">
         <v>772.700000000000045</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:12">
       <c r="A15" t="n">
         <v>333357</v>
       </c>
@@ -1074,31 +1030,28 @@
         <v>3910.32250000000022</v>
       </c>
       <c r="E15" t="n">
-        <v>20410505</v>
+        <v>3652.5</v>
       </c>
       <c r="F15" t="n">
-        <v>3652.5</v>
+        <v>12.7847290000000005</v>
       </c>
       <c r="G15" t="n">
-        <v>12.7847290000000005</v>
+        <v>47.6692979999999977</v>
       </c>
       <c r="H15" t="n">
-        <v>47.6692979999999977</v>
+        <v>742.094900000000052</v>
       </c>
       <c r="I15" t="n">
-        <v>742.094900000000052</v>
+        <v>1653.30950000000007</v>
       </c>
       <c r="J15" t="n">
-        <v>1653.30950000000007</v>
+        <v>3.73481180000000013</v>
       </c>
       <c r="K15" t="n">
-        <v>3.73481180000000013</v>
-      </c>
-      <c r="L15" t="n">
-        <v>764.899999999999977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>764.899999999999864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="n">
         <v>333357</v>
       </c>
@@ -1112,31 +1065,28 @@
         <v>6051.99439999999959</v>
       </c>
       <c r="E16" t="n">
-        <v>20430523</v>
+        <v>4017.75</v>
       </c>
       <c r="F16" t="n">
-        <v>4017.75</v>
+        <v>8.89735349999999769</v>
       </c>
       <c r="G16" t="n">
-        <v>8.89735349999999769</v>
+        <v>51.4604360000000014</v>
       </c>
       <c r="H16" t="n">
-        <v>51.4604360000000014</v>
+        <v>2451.93550000000005</v>
       </c>
       <c r="I16" t="n">
-        <v>2451.93550000000005</v>
+        <v>2018.49739999999997</v>
       </c>
       <c r="J16" t="n">
-        <v>2018.49739999999997</v>
+        <v>1.91423300000000012</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91423300000000012</v>
-      </c>
-      <c r="L16" t="n">
         <v>831.600000000000023</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:12">
       <c r="A17" t="n">
         <v>332357</v>
       </c>
@@ -1150,31 +1100,28 @@
         <v>4407.05220000000008</v>
       </c>
       <c r="E17" t="n">
-        <v>20411121</v>
+        <v>4017.75</v>
       </c>
       <c r="F17" t="n">
-        <v>4017.75</v>
+        <v>10.8100799999999992</v>
       </c>
       <c r="G17" t="n">
-        <v>10.8100799999999992</v>
+        <v>46.8565579999999997</v>
       </c>
       <c r="H17" t="n">
-        <v>46.8565579999999997</v>
+        <v>1277.64470000000006</v>
       </c>
       <c r="I17" t="n">
-        <v>1277.64470000000006</v>
+        <v>1746.6101000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>1746.6101000000001</v>
+        <v>2.74620610000000021</v>
       </c>
       <c r="K17" t="n">
-        <v>2.74620610000000021</v>
-      </c>
-      <c r="L17" t="n">
         <v>632.799999999999955</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:12">
       <c r="A18" t="n">
         <v>332357</v>
       </c>
@@ -1188,31 +1135,28 @@
         <v>5886.82120000000032</v>
       </c>
       <c r="E18" t="n">
-        <v>20410828</v>
+        <v>4017.75</v>
       </c>
       <c r="F18" t="n">
-        <v>4017.75</v>
+        <v>11.3447490000000002</v>
       </c>
       <c r="G18" t="n">
-        <v>11.3447490000000002</v>
+        <v>47.0351929999999996</v>
       </c>
       <c r="H18" t="n">
-        <v>47.0351929999999996</v>
+        <v>1813.37869999999998</v>
       </c>
       <c r="I18" t="n">
-        <v>1813.37869999999998</v>
+        <v>2836.98939999999993</v>
       </c>
       <c r="J18" t="n">
-        <v>2836.98939999999993</v>
+        <v>3.00152369999999991</v>
       </c>
       <c r="K18" t="n">
-        <v>3.00152369999999991</v>
-      </c>
-      <c r="L18" t="n">
         <v>486.5</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:12">
       <c r="A19" t="n">
         <v>332357</v>
       </c>
@@ -1226,31 +1170,28 @@
         <v>5855.5033999999996</v>
       </c>
       <c r="E19" t="n">
-        <v>20410904</v>
+        <v>4017.75</v>
       </c>
       <c r="F19" t="n">
-        <v>4017.75</v>
+        <v>11.3012540000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>11.3012540000000001</v>
+        <v>47.0183469999999986</v>
       </c>
       <c r="H19" t="n">
-        <v>47.0183469999999986</v>
+        <v>1818.4701</v>
       </c>
       <c r="I19" t="n">
-        <v>1818.4701</v>
+        <v>2814.14849999999979</v>
       </c>
       <c r="J19" t="n">
-        <v>2814.14849999999979</v>
+        <v>2.9803996999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>2.9803996999999999</v>
-      </c>
-      <c r="L19" t="n">
         <v>472.899999999999977</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:12">
       <c r="A20" t="n">
         <v>332357</v>
       </c>
@@ -1264,36 +1205,33 @@
         <v>5887.4350000000004</v>
       </c>
       <c r="E20" t="n">
-        <v>20410828</v>
+        <v>4017.75</v>
       </c>
       <c r="F20" t="n">
-        <v>4017.75</v>
+        <v>11.3444190000000003</v>
       </c>
       <c r="G20" t="n">
-        <v>11.3444190000000003</v>
+        <v>47.0351819999999989</v>
       </c>
       <c r="H20" t="n">
-        <v>47.0351819999999989</v>
+        <v>1813.23199999999997</v>
       </c>
       <c r="I20" t="n">
-        <v>1813.23199999999997</v>
+        <v>2836.52520000000004</v>
       </c>
       <c r="J20" t="n">
-        <v>2836.52520000000004</v>
+        <v>3.00136290000000017</v>
       </c>
       <c r="K20" t="n">
-        <v>3.00136290000000017</v>
-      </c>
-      <c r="L20" t="n">
         <v>487.699999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:12">
       <c r="A21" t="n">
         <v>332357</v>
       </c>
       <c r="B21" t="n">
-        <v>1.45468599999999988</v>
+        <v>1.4546859999999997</v>
       </c>
       <c r="C21" t="n">
         <v>-2.72552240000000001</v>
@@ -1302,31 +1240,28 @@
         <v>5884.56099999999969</v>
       </c>
       <c r="E21" t="n">
-        <v>20410829</v>
+        <v>4017.75</v>
       </c>
       <c r="F21" t="n">
-        <v>4017.75</v>
+        <v>11.3404520000000009</v>
       </c>
       <c r="G21" t="n">
-        <v>11.3404520000000009</v>
+        <v>47.0339269999999985</v>
       </c>
       <c r="H21" t="n">
-        <v>47.0339269999999985</v>
+        <v>1812.90789999999993</v>
       </c>
       <c r="I21" t="n">
-        <v>1812.90789999999993</v>
+        <v>2833.20530000000008</v>
       </c>
       <c r="J21" t="n">
-        <v>2833.20530000000008</v>
+        <v>2.99943379999999991</v>
       </c>
       <c r="K21" t="n">
-        <v>2.99943379999999991</v>
-      </c>
-      <c r="L21" t="n">
         <v>488.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:12">
       <c r="A22" t="n">
         <v>332357</v>
       </c>
@@ -1340,31 +1275,28 @@
         <v>5869.48269999999957</v>
       </c>
       <c r="E22" t="n">
-        <v>20410907</v>
+        <v>4017.75</v>
       </c>
       <c r="F22" t="n">
-        <v>4017.75</v>
+        <v>11.2871650000000017</v>
       </c>
       <c r="G22" t="n">
-        <v>11.2871649999999999</v>
+        <v>47.0122690000000034</v>
       </c>
       <c r="H22" t="n">
-        <v>47.0122690000000034</v>
+        <v>1821.00810000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>1821.00810000000001</v>
+        <v>2808.14690000000019</v>
       </c>
       <c r="J22" t="n">
-        <v>2808.14690000000019</v>
+        <v>2.97357069999999979</v>
       </c>
       <c r="K22" t="n">
-        <v>2.97357069999999979</v>
-      </c>
-      <c r="L22" t="n">
         <v>490.399999999999977</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:12">
       <c r="A23" t="n">
         <v>332357</v>
       </c>
@@ -1378,31 +1310,28 @@
         <v>4253.11639999999989</v>
       </c>
       <c r="E23" t="n">
-        <v>20411128</v>
+        <v>4017.75</v>
       </c>
       <c r="F23" t="n">
-        <v>4017.75</v>
+        <v>10.7759020000000003</v>
       </c>
       <c r="G23" t="n">
-        <v>10.7759020000000003</v>
+        <v>46.8398019999999988</v>
       </c>
       <c r="H23" t="n">
-        <v>46.8398019999999988</v>
+        <v>1257.75970000000007</v>
       </c>
       <c r="I23" t="n">
-        <v>1257.75970000000007</v>
+        <v>1704.52209999999991</v>
       </c>
       <c r="J23" t="n">
-        <v>1704.52209999999991</v>
+        <v>2.73021080000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>2.73021080000000005</v>
-      </c>
-      <c r="L23" t="n">
         <v>540.899999999999977</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:12">
       <c r="A24" t="n">
         <v>332357</v>
       </c>
@@ -1416,31 +1345,28 @@
         <v>4063.72029999999995</v>
       </c>
       <c r="E24" t="n">
-        <v>20401214</v>
+        <v>3652.5</v>
       </c>
       <c r="F24" t="n">
-        <v>3652.5</v>
+        <v>12.9813279999999995</v>
       </c>
       <c r="G24" t="n">
-        <v>12.9813279999999995</v>
+        <v>47.8805910000000026</v>
       </c>
       <c r="H24" t="n">
-        <v>47.8805910000000026</v>
+        <v>854.123699999999985</v>
       </c>
       <c r="I24" t="n">
-        <v>854.123699999999985</v>
+        <v>1995.2817</v>
       </c>
       <c r="J24" t="n">
-        <v>1995.2817</v>
+        <v>3.83985870000000027</v>
       </c>
       <c r="K24" t="n">
-        <v>3.83985870000000027</v>
-      </c>
-      <c r="L24" t="n">
         <v>464.300000000000011</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:12">
       <c r="A25" t="n">
         <v>332357</v>
       </c>
@@ -1454,31 +1380,28 @@
         <v>4269.85059999999976</v>
       </c>
       <c r="E25" t="n">
-        <v>20411127</v>
+        <v>4017.75</v>
       </c>
       <c r="F25" t="n">
-        <v>4017.75</v>
+        <v>10.7823040000000017</v>
       </c>
       <c r="G25" t="n">
-        <v>10.7823039999999999</v>
+        <v>46.8424910000000025</v>
       </c>
       <c r="H25" t="n">
-        <v>46.8424910000000025</v>
+        <v>1259.52050000000008</v>
       </c>
       <c r="I25" t="n">
-        <v>1259.52050000000008</v>
+        <v>1709.69560000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>1709.69560000000001</v>
+        <v>2.73320389999999991</v>
       </c>
       <c r="K25" t="n">
-        <v>2.73320389999999991</v>
-      </c>
-      <c r="L25" t="n">
         <v>550.700000000000045</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:12">
       <c r="A26" t="n">
         <v>332357</v>
       </c>
@@ -1492,31 +1415,28 @@
         <v>4448.22869999999966</v>
       </c>
       <c r="E26" t="n">
-        <v>20420518</v>
+        <v>4017.75</v>
       </c>
       <c r="F26" t="n">
-        <v>4017.75</v>
+        <v>10.9134019999999996</v>
       </c>
       <c r="G26" t="n">
-        <v>10.9134019999999996</v>
+        <v>50.3687860000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>50.3687860000000001</v>
+        <v>1367.5483999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>1367.5483999999999</v>
+        <v>1919.2469000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>1919.2469000000001</v>
+        <v>2.79480050000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>2.79480050000000002</v>
-      </c>
-      <c r="L26" t="n">
         <v>411.399999999999977</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:12">
       <c r="A27" t="n">
         <v>332357</v>
       </c>
@@ -1530,31 +1450,28 @@
         <v>3972.41159999999991</v>
       </c>
       <c r="E27" t="n">
-        <v>20421218</v>
+        <v>4017.75</v>
       </c>
       <c r="F27" t="n">
-        <v>4017.75</v>
+        <v>9.67098389999999952</v>
       </c>
       <c r="G27" t="n">
-        <v>9.67098389999999952</v>
+        <v>50.920341999999998</v>
       </c>
       <c r="H27" t="n">
-        <v>50.920341999999998</v>
+        <v>1230.30860000000007</v>
       </c>
       <c r="I27" t="n">
-        <v>1230.30860000000007</v>
+        <v>1250.25649999999996</v>
       </c>
       <c r="J27" t="n">
-        <v>1250.25649999999996</v>
+        <v>2.23490549999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>2.23490549999999999</v>
-      </c>
-      <c r="L27" t="n">
-        <v>741.899999999999977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>741.899999999999864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="n">
         <v>332237</v>
       </c>
@@ -1568,31 +1485,28 @@
         <v>5980.33809999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>20420525</v>
+        <v>4017.75</v>
       </c>
       <c r="F28" t="n">
-        <v>4017.75</v>
+        <v>8.57368899999999989</v>
       </c>
       <c r="G28" t="n">
-        <v>8.57368899999999989</v>
+        <v>69.9049679999999967</v>
       </c>
       <c r="H28" t="n">
-        <v>69.9049679999999967</v>
+        <v>2529.67740000000003</v>
       </c>
       <c r="I28" t="n">
-        <v>2529.67740000000003</v>
+        <v>1901.62120000000004</v>
       </c>
       <c r="J28" t="n">
-        <v>1901.62120000000004</v>
+        <v>1.78672550000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>1.78672550000000001</v>
-      </c>
-      <c r="L28" t="n">
         <v>799.100000000000023</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:12">
       <c r="A29" t="n">
         <v>332237</v>
       </c>
@@ -1606,31 +1520,28 @@
         <v>5926.04989999999998</v>
       </c>
       <c r="E29" t="n">
-        <v>20420922</v>
+        <v>4017.75</v>
       </c>
       <c r="F29" t="n">
-        <v>4017.75</v>
+        <v>8.11775549999999768</v>
       </c>
       <c r="G29" t="n">
-        <v>8.11775549999999768</v>
+        <v>70.6934360000000197</v>
       </c>
       <c r="H29" t="n">
-        <v>70.6934360000000055</v>
+        <v>2569.15380000000005</v>
       </c>
       <c r="I29" t="n">
-        <v>2569.15380000000005</v>
+        <v>1693.83030000000008</v>
       </c>
       <c r="J29" t="n">
-        <v>1693.83030000000008</v>
+        <v>1.61395559999999971</v>
       </c>
       <c r="K29" t="n">
-        <v>1.61395559999999989</v>
-      </c>
-      <c r="L29" t="n">
         <v>913.100000000000023</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:12">
       <c r="A30" t="n">
         <v>332257</v>
       </c>
@@ -1644,31 +1555,28 @@
         <v>5761.72530000000006</v>
       </c>
       <c r="E30" t="n">
-        <v>20410309</v>
+        <v>4017.75</v>
       </c>
       <c r="F30" t="n">
-        <v>4017.75</v>
+        <v>12.8662259999999993</v>
       </c>
       <c r="G30" t="n">
-        <v>12.8662259999999993</v>
+        <v>47.4025189999999981</v>
       </c>
       <c r="H30" t="n">
-        <v>47.4025189999999981</v>
+        <v>1297.8728000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>1297.8728000000001</v>
+        <v>2948.97080000000005</v>
       </c>
       <c r="J30" t="n">
-        <v>2948.97080000000005</v>
+        <v>3.77821840000000009</v>
       </c>
       <c r="K30" t="n">
-        <v>3.77821840000000009</v>
-      </c>
-      <c r="L30" t="n">
-        <v>764.899999999999977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>764.899999999999864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="n">
         <v>332257</v>
       </c>
@@ -1682,31 +1590,28 @@
         <v>5763.83989999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>20410310</v>
+        <v>4017.75</v>
       </c>
       <c r="F31" t="n">
-        <v>4017.75</v>
+        <v>12.8542539999999992</v>
       </c>
       <c r="G31" t="n">
-        <v>12.8542539999999992</v>
+        <v>47.3997049999999973</v>
       </c>
       <c r="H31" t="n">
-        <v>47.3997049999999973</v>
+        <v>1302.66260000000011</v>
       </c>
       <c r="I31" t="n">
-        <v>1302.66260000000011</v>
+        <v>2951.31790000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>2951.31790000000001</v>
+        <v>3.77182940000000011</v>
       </c>
       <c r="K31" t="n">
-        <v>3.77182940000000011</v>
-      </c>
-      <c r="L31" t="n">
-        <v>759.899999999999977</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>759.899999999999864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="n">
         <v>332257</v>
       </c>
@@ -1720,31 +1625,28 @@
         <v>4377.33510000000024</v>
       </c>
       <c r="E32" t="n">
-        <v>20410628</v>
+        <v>4017.75</v>
       </c>
       <c r="F32" t="n">
-        <v>4017.75</v>
+        <v>13.034516</v>
       </c>
       <c r="G32" t="n">
-        <v>13.034516</v>
+        <v>49.094541999999997</v>
       </c>
       <c r="H32" t="n">
-        <v>49.094541999999997</v>
+        <v>934.006200000000035</v>
       </c>
       <c r="I32" t="n">
-        <v>934.006200000000035</v>
+        <v>2209.99350000000004</v>
       </c>
       <c r="J32" t="n">
-        <v>2209.99350000000004</v>
+        <v>3.86847429999999992</v>
       </c>
       <c r="K32" t="n">
-        <v>3.86847429999999992</v>
-      </c>
-      <c r="L32" t="n">
         <v>483.300000000000011</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:12">
       <c r="A33" t="n">
         <v>332257</v>
       </c>
@@ -1758,31 +1660,28 @@
         <v>5856.31620000000021</v>
       </c>
       <c r="E33" t="n">
-        <v>20420916</v>
+        <v>4017.75</v>
       </c>
       <c r="F33" t="n">
-        <v>4017.75</v>
+        <v>9.97225070000000002</v>
       </c>
       <c r="G33" t="n">
-        <v>9.97225070000000002</v>
+        <v>49.6385819999999995</v>
       </c>
       <c r="H33" t="n">
-        <v>49.6385819999999995</v>
+        <v>2040.23049999999989</v>
       </c>
       <c r="I33" t="n">
-        <v>2040.23049999999989</v>
+        <v>2245.62300000000005</v>
       </c>
       <c r="J33" t="n">
-        <v>2245.62300000000005</v>
+        <v>2.3656925000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>2.3656925000000002</v>
-      </c>
-      <c r="L33" t="n">
         <v>820.5</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:12">
       <c r="A34" t="n">
         <v>323357</v>
       </c>
@@ -1796,36 +1695,33 @@
         <v>5376.01199999999972</v>
       </c>
       <c r="E34" t="n">
-        <v>20401030</v>
+        <v>4017.75</v>
       </c>
       <c r="F34" t="n">
-        <v>4017.75</v>
+        <v>13.2749889999999997</v>
       </c>
       <c r="G34" t="n">
-        <v>13.2749889999999997</v>
+        <v>48.0930219999999977</v>
       </c>
       <c r="H34" t="n">
-        <v>48.0930219999999977</v>
+        <v>1277.30240000000003</v>
       </c>
       <c r="I34" t="n">
-        <v>1277.30240000000003</v>
+        <v>3201.85559999999987</v>
       </c>
       <c r="J34" t="n">
-        <v>3201.85559999999987</v>
+        <v>3.99888250000000021</v>
       </c>
       <c r="K34" t="n">
-        <v>3.99888250000000021</v>
-      </c>
-      <c r="L34" t="n">
         <v>146.900000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:12">
       <c r="A35" t="n">
         <v>323357</v>
       </c>
       <c r="B35" t="n">
-        <v>9.55105120000000163</v>
+        <v>9.55105119999999985</v>
       </c>
       <c r="C35" t="n">
         <v>4.87325219999999959</v>
@@ -1834,31 +1730,28 @@
         <v>5025.72050000000036</v>
       </c>
       <c r="E35" t="n">
-        <v>20401021</v>
+        <v>4017.75</v>
       </c>
       <c r="F35" t="n">
-        <v>4017.75</v>
+        <v>13.3444959999999995</v>
       </c>
       <c r="G35" t="n">
-        <v>13.3444959999999995</v>
+        <v>48.1215490000000017</v>
       </c>
       <c r="H35" t="n">
-        <v>48.1215490000000017</v>
+        <v>1174.41660000000002</v>
       </c>
       <c r="I35" t="n">
-        <v>1174.41660000000002</v>
+        <v>2993.35170000000016</v>
       </c>
       <c r="J35" t="n">
-        <v>2993.35170000000016</v>
+        <v>4.0368877000000003</v>
       </c>
       <c r="K35" t="n">
-        <v>4.0368877000000003</v>
-      </c>
-      <c r="L35" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:12">
       <c r="A36" t="n">
         <v>323357</v>
       </c>
@@ -1872,31 +1765,28 @@
         <v>5029.40949999999975</v>
       </c>
       <c r="E36" t="n">
-        <v>20401021</v>
+        <v>4017.75</v>
       </c>
       <c r="F36" t="n">
-        <v>4017.75</v>
+        <v>13.3445809999999998</v>
       </c>
       <c r="G36" t="n">
-        <v>13.3445809999999998</v>
+        <v>48.1214399999999998</v>
       </c>
       <c r="H36" t="n">
-        <v>48.1214399999999998</v>
+        <v>1174.76050000000009</v>
       </c>
       <c r="I36" t="n">
-        <v>1174.76050000000009</v>
+        <v>2994.28990000000022</v>
       </c>
       <c r="J36" t="n">
-        <v>2994.28990000000022</v>
+        <v>4.03693480000000005</v>
       </c>
       <c r="K36" t="n">
-        <v>4.03693480000000005</v>
-      </c>
-      <c r="L36" t="n">
         <v>110.400000000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:12">
       <c r="A37" t="n">
         <v>323357</v>
       </c>
@@ -1910,31 +1800,28 @@
         <v>5388.29269999999997</v>
       </c>
       <c r="E37" t="n">
-        <v>20420203</v>
+        <v>4017.75</v>
       </c>
       <c r="F37" t="n">
-        <v>4017.75</v>
+        <v>11.7259309999999992</v>
       </c>
       <c r="G37" t="n">
-        <v>11.7259309999999992</v>
+        <v>50.5407039999999981</v>
       </c>
       <c r="H37" t="n">
-        <v>50.5407039999999981</v>
+        <v>1566.75540000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>1566.75540000000001</v>
+        <v>2694.95749999999998</v>
       </c>
       <c r="J37" t="n">
-        <v>2694.95749999999998</v>
+        <v>3.18927849999999991</v>
       </c>
       <c r="K37" t="n">
-        <v>3.18927849999999991</v>
-      </c>
-      <c r="L37" t="n">
         <v>376.600000000000023</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:12">
       <c r="A38" t="n">
         <v>323357</v>
       </c>
@@ -1948,31 +1835,28 @@
         <v>5154.24030000000039</v>
       </c>
       <c r="E38" t="n">
-        <v>20401116</v>
+        <v>4017.75</v>
       </c>
       <c r="F38" t="n">
-        <v>4017.75</v>
+        <v>13.1492629999999995</v>
       </c>
       <c r="G38" t="n">
-        <v>13.1492629999999995</v>
+        <v>48.0246139999999997</v>
       </c>
       <c r="H38" t="n">
-        <v>48.0246139999999997</v>
+        <v>1238.9389000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>1238.9389000000001</v>
+        <v>3013.45290000000023</v>
       </c>
       <c r="J38" t="n">
-        <v>3013.45290000000023</v>
+        <v>3.93049120000000016</v>
       </c>
       <c r="K38" t="n">
-        <v>3.93049120000000016</v>
-      </c>
-      <c r="L38" t="n">
         <v>151.800000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:12">
       <c r="A39" t="n">
         <v>323357</v>
       </c>
@@ -1986,31 +1870,28 @@
         <v>5657.40949999999975</v>
       </c>
       <c r="E39" t="n">
-        <v>20410827</v>
+        <v>4017.75</v>
       </c>
       <c r="F39" t="n">
-        <v>4017.75</v>
+        <v>12.9306269999999994</v>
       </c>
       <c r="G39" t="n">
-        <v>12.9306269999999994</v>
+        <v>50.1677299999999988</v>
       </c>
       <c r="H39" t="n">
-        <v>50.1677299999999988</v>
+        <v>1326.99180000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>1326.99180000000001</v>
+        <v>3062.30870000000004</v>
       </c>
       <c r="J39" t="n">
-        <v>3062.30870000000004</v>
+        <v>3.81265859999999979</v>
       </c>
       <c r="K39" t="n">
-        <v>3.81265859999999979</v>
-      </c>
-      <c r="L39" t="n">
         <v>518.100000000000023</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:12">
       <c r="A40" t="n">
         <v>323357</v>
       </c>
@@ -2024,31 +1905,28 @@
         <v>5627.86329999999998</v>
       </c>
       <c r="E40" t="n">
-        <v>20411111</v>
+        <v>4017.75</v>
       </c>
       <c r="F40" t="n">
-        <v>4017.75</v>
+        <v>12.3600300000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>12.3600300000000001</v>
+        <v>50.3999549999999985</v>
       </c>
       <c r="H40" t="n">
-        <v>50.3999549999999985</v>
+        <v>1455.85660000000007</v>
       </c>
       <c r="I40" t="n">
-        <v>1455.85660000000007</v>
+        <v>2925.97069999999985</v>
       </c>
       <c r="J40" t="n">
-        <v>2925.97069999999985</v>
+        <v>3.51184170000000018</v>
       </c>
       <c r="K40" t="n">
-        <v>3.51184170000000018</v>
-      </c>
-      <c r="L40" t="n">
         <v>496</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:12">
       <c r="A41" t="n">
         <v>323357</v>
       </c>
@@ -2062,31 +1940,28 @@
         <v>5378.33489999999983</v>
       </c>
       <c r="E41" t="n">
-        <v>20420203</v>
+        <v>4017.75</v>
       </c>
       <c r="F41" t="n">
-        <v>4017.75</v>
+        <v>11.7241459999999993</v>
       </c>
       <c r="G41" t="n">
-        <v>11.7241459999999993</v>
+        <v>50.5411580000000029</v>
       </c>
       <c r="H41" t="n">
-        <v>50.5411580000000029</v>
+        <v>1566.40550000000007</v>
       </c>
       <c r="I41" t="n">
-        <v>1566.40550000000007</v>
+        <v>2693.16620000000012</v>
       </c>
       <c r="J41" t="n">
-        <v>2693.16620000000012</v>
+        <v>3.18838869999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>3.18838869999999996</v>
-      </c>
-      <c r="L41" t="n">
         <v>368.800000000000011</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:12">
       <c r="A42" t="n">
         <v>323357</v>
       </c>
@@ -2100,31 +1975,28 @@
         <v>4628.45979999999963</v>
       </c>
       <c r="E42" t="n">
-        <v>20420904</v>
+        <v>4017.75</v>
       </c>
       <c r="F42" t="n">
-        <v>4017.75</v>
+        <v>10.2841349999999991</v>
       </c>
       <c r="G42" t="n">
-        <v>10.2841349999999991</v>
+        <v>50.7915629999999965</v>
       </c>
       <c r="H42" t="n">
-        <v>50.7915629999999965</v>
+        <v>1486.7940000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>1486.7940000000001</v>
+        <v>1775.48949999999991</v>
       </c>
       <c r="J42" t="n">
-        <v>1775.48949999999991</v>
+        <v>2.50448819999999994</v>
       </c>
       <c r="K42" t="n">
-        <v>2.50448819999999994</v>
-      </c>
-      <c r="L42" t="n">
         <v>616.200000000000045</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:12">
       <c r="A43" t="n">
         <v>323357</v>
       </c>
@@ -2138,31 +2010,28 @@
         <v>5386.29200000000037</v>
       </c>
       <c r="E43" t="n">
-        <v>20420203</v>
+        <v>4017.75</v>
       </c>
       <c r="F43" t="n">
-        <v>4017.75</v>
+        <v>11.7252089999999995</v>
       </c>
       <c r="G43" t="n">
-        <v>11.7252089999999995</v>
+        <v>50.5409099999999967</v>
       </c>
       <c r="H43" t="n">
-        <v>50.5409099999999967</v>
+        <v>1567.1860999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>1567.1860999999999</v>
+        <v>2695.2174</v>
       </c>
       <c r="J43" t="n">
-        <v>2695.2174</v>
+        <v>3.1889189</v>
       </c>
       <c r="K43" t="n">
-        <v>3.1889189</v>
-      </c>
-      <c r="L43" t="n">
         <v>373.899999999999977</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:12">
       <c r="A44" t="n">
         <v>323357</v>
       </c>
@@ -2176,31 +2045,28 @@
         <v>5166.11740000000009</v>
       </c>
       <c r="E44" t="n">
-        <v>20410523</v>
+        <v>3652.5</v>
       </c>
       <c r="F44" t="n">
-        <v>3652.5</v>
+        <v>12.6322150000000004</v>
       </c>
       <c r="G44" t="n">
-        <v>12.6322150000000004</v>
+        <v>47.6308310000000006</v>
       </c>
       <c r="H44" t="n">
-        <v>47.6308310000000006</v>
+        <v>1340.72370000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>1340.72370000000001</v>
+        <v>2878.79019999999991</v>
       </c>
       <c r="J44" t="n">
-        <v>2878.79019999999991</v>
+        <v>3.65411360000000007</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65411360000000007</v>
-      </c>
-      <c r="L44" t="n">
         <v>196.599999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:12">
       <c r="A45" t="n">
         <v>323357</v>
       </c>
@@ -2214,31 +2080,28 @@
         <v>5222.69890000000032</v>
       </c>
       <c r="E45" t="n">
-        <v>20420415</v>
+        <v>4017.75</v>
       </c>
       <c r="F45" t="n">
-        <v>4017.75</v>
+        <v>10.4280539999999995</v>
       </c>
       <c r="G45" t="n">
-        <v>10.4280539999999995</v>
+        <v>47.5354069999999993</v>
       </c>
       <c r="H45" t="n">
-        <v>47.5354069999999993</v>
+        <v>1764.03639999999996</v>
       </c>
       <c r="I45" t="n">
-        <v>1764.03639999999996</v>
+        <v>2186.55699999999979</v>
       </c>
       <c r="J45" t="n">
-        <v>2186.55699999999979</v>
+        <v>2.56968450000000015</v>
       </c>
       <c r="K45" t="n">
-        <v>2.56968450000000015</v>
-      </c>
-      <c r="L45" t="n">
         <v>522.100000000000023</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:12">
       <c r="A46" t="n">
         <v>323357</v>
       </c>
@@ -2252,31 +2115,28 @@
         <v>5166.15210000000025</v>
       </c>
       <c r="E46" t="n">
-        <v>20410523</v>
+        <v>3652.5</v>
       </c>
       <c r="F46" t="n">
-        <v>3652.5</v>
+        <v>12.6322180000000017</v>
       </c>
       <c r="G46" t="n">
-        <v>12.6322179999999999</v>
+        <v>47.6308209999999974</v>
       </c>
       <c r="H46" t="n">
-        <v>47.6308209999999974</v>
+        <v>1340.72550000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>1340.72550000000001</v>
+        <v>2878.79660000000013</v>
       </c>
       <c r="J46" t="n">
-        <v>2878.79660000000013</v>
+        <v>3.65411539999999979</v>
       </c>
       <c r="K46" t="n">
-        <v>3.65411539999999979</v>
-      </c>
-      <c r="L46" t="n">
         <v>196.599999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:12">
       <c r="A47" t="n">
         <v>323357</v>
       </c>
@@ -2290,31 +2150,28 @@
         <v>5450.44719999999961</v>
       </c>
       <c r="E47" t="n">
-        <v>20420508</v>
+        <v>4017.75</v>
       </c>
       <c r="F47" t="n">
-        <v>4017.75</v>
+        <v>11.0442359999999997</v>
       </c>
       <c r="G47" t="n">
-        <v>11.0442359999999997</v>
+        <v>50.5983269999999976</v>
       </c>
       <c r="H47" t="n">
-        <v>50.5983269999999976</v>
+        <v>1769.21939999999995</v>
       </c>
       <c r="I47" t="n">
-        <v>1769.21939999999995</v>
+        <v>2566.55510000000004</v>
       </c>
       <c r="J47" t="n">
-        <v>2566.55510000000004</v>
+        <v>2.85684970000000007</v>
       </c>
       <c r="K47" t="n">
-        <v>2.85684970000000007</v>
-      </c>
-      <c r="L47" t="n">
         <v>364.699999999999989</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:12">
       <c r="A48" t="n">
         <v>323357</v>
       </c>
@@ -2328,31 +2185,28 @@
         <v>5368.36059999999998</v>
       </c>
       <c r="E48" t="n">
-        <v>20410520</v>
+        <v>3652.5</v>
       </c>
       <c r="F48" t="n">
-        <v>3652.5</v>
+        <v>13.7992229999999996</v>
       </c>
       <c r="G48" t="n">
-        <v>13.7992229999999996</v>
+        <v>50.0268640000000033</v>
       </c>
       <c r="H48" t="n">
-        <v>50.0268640000000033</v>
+        <v>1097.86699999999996</v>
       </c>
       <c r="I48" t="n">
-        <v>1097.86699999999996</v>
+        <v>3118.84960000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>3118.84960000000001</v>
+        <v>4.28892330000000044</v>
       </c>
       <c r="K48" t="n">
-        <v>4.28892330000000044</v>
-      </c>
-      <c r="L48" t="n">
         <v>401.600000000000023</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:12">
       <c r="A49" t="n">
         <v>323357</v>
       </c>
@@ -2366,31 +2220,28 @@
         <v>4701.19859999999971</v>
       </c>
       <c r="E49" t="n">
-        <v>20420825</v>
+        <v>4017.75</v>
       </c>
       <c r="F49" t="n">
-        <v>4017.75</v>
+        <v>10.3813510000000004</v>
       </c>
       <c r="G49" t="n">
-        <v>10.3813510000000004</v>
+        <v>50.9118980000000008</v>
       </c>
       <c r="H49" t="n">
-        <v>50.9118980000000008</v>
+        <v>1499.76279999999997</v>
       </c>
       <c r="I49" t="n">
-        <v>1499.76279999999997</v>
+        <v>1836.68029999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>1836.68029999999999</v>
+        <v>2.54844880000000007</v>
       </c>
       <c r="K49" t="n">
-        <v>2.54844880000000007</v>
-      </c>
-      <c r="L49" t="n">
         <v>614.799999999999955</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:12">
       <c r="A50" t="n">
         <v>323357</v>
       </c>
@@ -2404,31 +2255,28 @@
         <v>4623.97839999999997</v>
       </c>
       <c r="E50" t="n">
-        <v>20420810</v>
+        <v>4017.75</v>
       </c>
       <c r="F50" t="n">
-        <v>4017.75</v>
+        <v>10.472054</v>
       </c>
       <c r="G50" t="n">
-        <v>10.472054</v>
+        <v>50.8980779999999982</v>
       </c>
       <c r="H50" t="n">
-        <v>50.8980779999999982</v>
+        <v>1555.70409999999993</v>
       </c>
       <c r="I50" t="n">
-        <v>1555.70409999999993</v>
+        <v>1950.33999999999992</v>
       </c>
       <c r="J50" t="n">
-        <v>1950.33999999999992</v>
+        <v>2.5897600999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>2.5897600999999999</v>
-      </c>
-      <c r="L50" t="n">
         <v>367.899999999999977</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:12">
       <c r="A51" t="n">
         <v>323357</v>
       </c>
@@ -2442,31 +2290,28 @@
         <v>4405.61170000000038</v>
       </c>
       <c r="E51" t="n">
-        <v>20410827</v>
+        <v>3652.5</v>
       </c>
       <c r="F51" t="n">
-        <v>3652.5</v>
+        <v>12.9812729999999998</v>
       </c>
       <c r="G51" t="n">
-        <v>12.9812729999999998</v>
+        <v>50.2891630000000021</v>
       </c>
       <c r="H51" t="n">
-        <v>50.2891630000000021</v>
+        <v>997.606099999999969</v>
       </c>
       <c r="I51" t="n">
-        <v>997.606099999999969</v>
+        <v>2330.43370000000004</v>
       </c>
       <c r="J51" t="n">
-        <v>2330.43370000000004</v>
+        <v>3.83982899999999994</v>
       </c>
       <c r="K51" t="n">
-        <v>3.83982899999999994</v>
-      </c>
-      <c r="L51" t="n">
         <v>327.600000000000023</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:12">
       <c r="A52" t="n">
         <v>323347</v>
       </c>
@@ -2480,31 +2325,28 @@
         <v>5367.13410000000022</v>
       </c>
       <c r="E52" t="n">
-        <v>20431219</v>
+        <v>4017.75</v>
       </c>
       <c r="F52" t="n">
-        <v>4017.75</v>
+        <v>11.1377880000000005</v>
       </c>
       <c r="G52" t="n">
-        <v>11.1377880000000005</v>
+        <v>53.8581280000000007</v>
       </c>
       <c r="H52" t="n">
-        <v>53.8581280000000007</v>
+        <v>1617.52749999999992</v>
       </c>
       <c r="I52" t="n">
-        <v>1617.52749999999992</v>
+        <v>2402.50939999999991</v>
       </c>
       <c r="J52" t="n">
-        <v>2402.50939999999991</v>
+        <v>2.90156720000000021</v>
       </c>
       <c r="K52" t="n">
-        <v>2.90156720000000021</v>
-      </c>
-      <c r="L52" t="n">
         <v>597.100000000000023</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:12">
       <c r="A53" t="n">
         <v>323257</v>
       </c>
@@ -2518,31 +2360,28 @@
         <v>5010.65080000000034</v>
       </c>
       <c r="E53" t="n">
-        <v>20401023</v>
+        <v>4017.75</v>
       </c>
       <c r="F53" t="n">
-        <v>4017.75</v>
+        <v>13.9273960000000017</v>
       </c>
       <c r="G53" t="n">
-        <v>13.9273959999999999</v>
+        <v>47.6810290000000023</v>
       </c>
       <c r="H53" t="n">
-        <v>47.6810290000000023</v>
+        <v>1002.45910000000003</v>
       </c>
       <c r="I53" t="n">
-        <v>1002.45910000000003</v>
+        <v>2935.89190000000008</v>
       </c>
       <c r="J53" t="n">
-        <v>2935.89190000000008</v>
+        <v>4.36101209999999995</v>
       </c>
       <c r="K53" t="n">
-        <v>4.36101209999999995</v>
-      </c>
-      <c r="L53" t="n">
         <v>322.300000000000011</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:12">
       <c r="A54" t="n">
         <v>323257</v>
       </c>
@@ -2556,31 +2395,28 @@
         <v>5450.59730000000036</v>
       </c>
       <c r="E54" t="n">
-        <v>20420103</v>
+        <v>4017.75</v>
       </c>
       <c r="F54" t="n">
-        <v>4017.75</v>
+        <v>11.5874159999999993</v>
       </c>
       <c r="G54" t="n">
-        <v>11.5874159999999993</v>
+        <v>49.2726830000000007</v>
       </c>
       <c r="H54" t="n">
-        <v>49.2726830000000007</v>
+        <v>1514.62059999999997</v>
       </c>
       <c r="I54" t="n">
-        <v>1514.62059999999997</v>
+        <v>2517.33739999999989</v>
       </c>
       <c r="J54" t="n">
-        <v>2517.33739999999989</v>
+        <v>3.1205086999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>3.1205086999999998</v>
-      </c>
-      <c r="L54" t="n">
         <v>668.600000000000023</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:12">
       <c r="A55" t="n">
         <v>323257</v>
       </c>
@@ -2594,31 +2430,28 @@
         <v>5141.27729999999974</v>
       </c>
       <c r="E55" t="n">
-        <v>20401117</v>
+        <v>4017.75</v>
       </c>
       <c r="F55" t="n">
-        <v>4017.75</v>
+        <v>13.715382</v>
       </c>
       <c r="G55" t="n">
-        <v>13.715382</v>
+        <v>47.6222240000000028</v>
       </c>
       <c r="H55" t="n">
-        <v>47.6222240000000028</v>
+        <v>1062.90990000000011</v>
       </c>
       <c r="I55" t="n">
-        <v>1062.90990000000011</v>
+        <v>2959.89829999999984</v>
       </c>
       <c r="J55" t="n">
-        <v>2959.89829999999984</v>
+        <v>4.24201560000000022</v>
       </c>
       <c r="K55" t="n">
-        <v>4.24201560000000022</v>
-      </c>
-      <c r="L55" t="n">
         <v>368.5</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:12">
       <c r="A56" t="n">
         <v>322337</v>
       </c>
@@ -2632,31 +2465,28 @@
         <v>4900.09590000000026</v>
       </c>
       <c r="E56" t="n">
-        <v>20431224</v>
+        <v>4017.75</v>
       </c>
       <c r="F56" t="n">
-        <v>4017.75</v>
+        <v>11.1048670000000005</v>
       </c>
       <c r="G56" t="n">
-        <v>11.1048670000000005</v>
+        <v>54.0134940000000014</v>
       </c>
       <c r="H56" t="n">
-        <v>54.0134940000000014</v>
+        <v>1493.73859999999991</v>
       </c>
       <c r="I56" t="n">
-        <v>1493.73859999999991</v>
+        <v>2200.32360000000017</v>
       </c>
       <c r="J56" t="n">
-        <v>2200.32360000000017</v>
+        <v>2.88579799999999977</v>
       </c>
       <c r="K56" t="n">
-        <v>2.88579799999999977</v>
-      </c>
-      <c r="L56" t="n">
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:12">
       <c r="A57" t="n">
         <v>322337</v>
       </c>
@@ -2670,31 +2500,28 @@
         <v>4653.39419999999973</v>
       </c>
       <c r="E57" t="n">
-        <v>20431120</v>
+        <v>4017.75</v>
       </c>
       <c r="F57" t="n">
-        <v>4017.75</v>
+        <v>11.3252450000000007</v>
       </c>
       <c r="G57" t="n">
-        <v>11.3252450000000007</v>
+        <v>53.8187929999999994</v>
       </c>
       <c r="H57" t="n">
-        <v>53.8187929999999994</v>
+        <v>1277.69810000000007</v>
       </c>
       <c r="I57" t="n">
-        <v>1277.69810000000007</v>
+        <v>1989.19769999999994</v>
       </c>
       <c r="J57" t="n">
-        <v>1989.19769999999994</v>
+        <v>2.99204369999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>2.99204369999999997</v>
-      </c>
-      <c r="L57" t="n">
         <v>636.5</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:12">
       <c r="A58" t="n">
         <v>322337</v>
       </c>
@@ -2708,31 +2535,28 @@
         <v>4853.68289999999979</v>
       </c>
       <c r="E58" t="n">
-        <v>20440203</v>
+        <v>4017.75</v>
       </c>
       <c r="F58" t="n">
-        <v>4017.75</v>
+        <v>10.8455030000000008</v>
       </c>
       <c r="G58" t="n">
-        <v>10.8455030000000008</v>
+        <v>54.1373839999999973</v>
       </c>
       <c r="H58" t="n">
-        <v>54.1373839999999973</v>
+        <v>1495.71749999999997</v>
       </c>
       <c r="I58" t="n">
-        <v>1495.71749999999997</v>
+        <v>2063.23770000000013</v>
       </c>
       <c r="J58" t="n">
-        <v>2063.23770000000013</v>
+        <v>2.76282570000000005</v>
       </c>
       <c r="K58" t="n">
-        <v>2.76282570000000005</v>
-      </c>
-      <c r="L58" t="n">
         <v>544.700000000000045</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:12">
       <c r="A59" t="n">
         <v>322357</v>
       </c>
@@ -2746,31 +2570,28 @@
         <v>4974.10120000000006</v>
       </c>
       <c r="E59" t="n">
-        <v>20401021</v>
+        <v>4017.75</v>
       </c>
       <c r="F59" t="n">
-        <v>4017.75</v>
+        <v>13.3839579999999998</v>
       </c>
       <c r="G59" t="n">
-        <v>13.3839579999999998</v>
+        <v>48.0652430000000024</v>
       </c>
       <c r="H59" t="n">
-        <v>48.0652430000000024</v>
+        <v>1149.01890000000003</v>
       </c>
       <c r="I59" t="n">
-        <v>1149.01890000000003</v>
+        <v>2956.39750000000004</v>
       </c>
       <c r="J59" t="n">
-        <v>2956.39750000000004</v>
+        <v>4.05852710000000005</v>
       </c>
       <c r="K59" t="n">
-        <v>4.05852710000000005</v>
-      </c>
-      <c r="L59" t="n">
         <v>118.700000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:12">
       <c r="A60" t="n">
         <v>322357</v>
       </c>
@@ -2784,31 +2605,28 @@
         <v>5241.07729999999992</v>
       </c>
       <c r="E60" t="n">
-        <v>20401031</v>
+        <v>4017.75</v>
       </c>
       <c r="F60" t="n">
-        <v>4017.75</v>
+        <v>13.2215000000000007</v>
       </c>
       <c r="G60" t="n">
-        <v>13.2215000000000007</v>
+        <v>48.1443470000000033</v>
       </c>
       <c r="H60" t="n">
-        <v>48.1443470000000033</v>
+        <v>1172.4348</v>
       </c>
       <c r="I60" t="n">
-        <v>1172.4348</v>
+        <v>2901.54550000000017</v>
       </c>
       <c r="J60" t="n">
-        <v>2901.54550000000017</v>
+        <v>3.9697300000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>3.9697300000000002</v>
-      </c>
-      <c r="L60" t="n">
         <v>417.100000000000023</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:12">
       <c r="A61" t="n">
         <v>322357</v>
       </c>
@@ -2822,31 +2640,28 @@
         <v>4976.57099999999991</v>
       </c>
       <c r="E61" t="n">
-        <v>20401021</v>
+        <v>4017.75</v>
       </c>
       <c r="F61" t="n">
-        <v>4017.75</v>
+        <v>13.3839780000000008</v>
       </c>
       <c r="G61" t="n">
-        <v>13.3839780000000008</v>
+        <v>48.0652529999999985</v>
       </c>
       <c r="H61" t="n">
-        <v>48.0652529999999985</v>
+        <v>1149.39149999999995</v>
       </c>
       <c r="I61" t="n">
-        <v>1149.39149999999995</v>
+        <v>2957.37060000000019</v>
       </c>
       <c r="J61" t="n">
-        <v>2957.37060000000019</v>
+        <v>4.0585382000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>4.0585382000000001</v>
-      </c>
-      <c r="L61" t="n">
         <v>119.799999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:12">
       <c r="A62" t="n">
         <v>322357</v>
       </c>
@@ -2860,31 +2675,28 @@
         <v>5446.46969999999965</v>
       </c>
       <c r="E62" t="n">
-        <v>20420201</v>
+        <v>4017.75</v>
       </c>
       <c r="F62" t="n">
-        <v>4017.75</v>
+        <v>11.7515900000000002</v>
       </c>
       <c r="G62" t="n">
-        <v>11.7515900000000002</v>
+        <v>50.5711870000000019</v>
       </c>
       <c r="H62" t="n">
-        <v>50.5711870000000019</v>
+        <v>1589.3886</v>
       </c>
       <c r="I62" t="n">
-        <v>1589.3886</v>
+        <v>2751.29539999999997</v>
       </c>
       <c r="J62" t="n">
-        <v>2751.29539999999997</v>
+        <v>3.20208519999999996</v>
       </c>
       <c r="K62" t="n">
-        <v>3.20208519999999996</v>
-      </c>
-      <c r="L62" t="n">
         <v>355.800000000000011</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:12">
       <c r="A63" t="n">
         <v>322357</v>
       </c>
@@ -2898,31 +2710,28 @@
         <v>5051.65419999999995</v>
       </c>
       <c r="E63" t="n">
-        <v>20401122</v>
+        <v>4017.75</v>
       </c>
       <c r="F63" t="n">
-        <v>4017.75</v>
+        <v>14.0878479999999993</v>
       </c>
       <c r="G63" t="n">
-        <v>14.0878479999999993</v>
+        <v>47.7619219999999984</v>
       </c>
       <c r="H63" t="n">
-        <v>47.7619219999999984</v>
+        <v>1008.13610000000006</v>
       </c>
       <c r="I63" t="n">
-        <v>1008.13610000000006</v>
+        <v>3067.08300000000008</v>
       </c>
       <c r="J63" t="n">
-        <v>3067.08300000000008</v>
+        <v>4.4518949000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>4.4518949000000001</v>
-      </c>
-      <c r="L63" t="n">
         <v>226.400000000000006</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:12">
       <c r="A64" t="n">
         <v>322357</v>
       </c>
@@ -2936,31 +2745,28 @@
         <v>5622.57840000000033</v>
       </c>
       <c r="E64" t="n">
-        <v>20410811</v>
+        <v>4017.75</v>
       </c>
       <c r="F64" t="n">
-        <v>4017.75</v>
+        <v>13.0275260000000017</v>
       </c>
       <c r="G64" t="n">
-        <v>13.0275259999999999</v>
+        <v>50.0374759999999981</v>
       </c>
       <c r="H64" t="n">
-        <v>50.0374759999999981</v>
+        <v>1213.37689999999998</v>
       </c>
       <c r="I64" t="n">
-        <v>1213.37689999999998</v>
+        <v>2866.20220000000018</v>
       </c>
       <c r="J64" t="n">
-        <v>2866.20220000000018</v>
+        <v>3.86470869999999991</v>
       </c>
       <c r="K64" t="n">
-        <v>3.86470869999999991</v>
-      </c>
-      <c r="L64" t="n">
         <v>793</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:12">
       <c r="A65" t="n">
         <v>322357</v>
       </c>
@@ -2974,31 +2780,28 @@
         <v>5666.19110000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>20411116</v>
+        <v>4017.75</v>
       </c>
       <c r="F65" t="n">
-        <v>4017.75</v>
+        <v>12.3298199999999998</v>
       </c>
       <c r="G65" t="n">
-        <v>12.3298199999999998</v>
+        <v>50.4408730000000034</v>
       </c>
       <c r="H65" t="n">
-        <v>50.4408730000000034</v>
+        <v>1477.74330000000009</v>
       </c>
       <c r="I65" t="n">
-        <v>1477.74330000000009</v>
+        <v>2948.17009999999982</v>
       </c>
       <c r="J65" t="n">
-        <v>2948.17009999999982</v>
+        <v>3.49619010000000019</v>
       </c>
       <c r="K65" t="n">
-        <v>3.49619010000000019</v>
-      </c>
-      <c r="L65" t="n">
         <v>490.300000000000011</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:12">
       <c r="A66" t="n">
         <v>322357</v>
       </c>
@@ -3012,31 +2815,28 @@
         <v>5617.83259999999973</v>
       </c>
       <c r="E66" t="n">
-        <v>20411210</v>
+        <v>4017.75</v>
       </c>
       <c r="F66" t="n">
-        <v>4017.75</v>
+        <v>12.1481490000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>12.1481490000000001</v>
+        <v>50.4794010000000029</v>
       </c>
       <c r="H66" t="n">
-        <v>50.4794010000000029</v>
+        <v>1519.97890000000007</v>
       </c>
       <c r="I66" t="n">
-        <v>1519.97890000000007</v>
+        <v>2900.78060000000005</v>
       </c>
       <c r="J66" t="n">
-        <v>2900.78060000000005</v>
+        <v>3.40266130000000011</v>
       </c>
       <c r="K66" t="n">
-        <v>3.40266130000000011</v>
-      </c>
-      <c r="L66" t="n">
         <v>447.100000000000023</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:12">
       <c r="A67" t="n">
         <v>322357</v>
       </c>
@@ -3050,31 +2850,28 @@
         <v>5269.95510000000013</v>
       </c>
       <c r="E67" t="n">
-        <v>20420319</v>
+        <v>4017.75</v>
       </c>
       <c r="F67" t="n">
-        <v>4017.75</v>
+        <v>11.4253049999999998</v>
       </c>
       <c r="G67" t="n">
-        <v>11.4253049999999998</v>
+        <v>50.6520050000000026</v>
       </c>
       <c r="H67" t="n">
-        <v>50.6520050000000026</v>
+        <v>1608.83870000000002</v>
       </c>
       <c r="I67" t="n">
-        <v>1608.83870000000002</v>
+        <v>2568.16260000000011</v>
       </c>
       <c r="J67" t="n">
-        <v>2568.16260000000011</v>
+        <v>3.0408097999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>3.0408097999999999</v>
-      </c>
-      <c r="L67" t="n">
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:12">
       <c r="A68" t="n">
         <v>322357</v>
       </c>
@@ -3088,31 +2885,28 @@
         <v>4989.15790000000015</v>
       </c>
       <c r="E68" t="n">
-        <v>20410516</v>
+        <v>3652.5</v>
       </c>
       <c r="F68" t="n">
-        <v>3652.5</v>
+        <v>12.6829850000000004</v>
       </c>
       <c r="G68" t="n">
-        <v>12.6829850000000004</v>
+        <v>47.6352899999999977</v>
       </c>
       <c r="H68" t="n">
-        <v>47.6352899999999977</v>
+        <v>1132.26780000000008</v>
       </c>
       <c r="I68" t="n">
-        <v>1132.26780000000008</v>
+        <v>2461.27019999999993</v>
       </c>
       <c r="J68" t="n">
-        <v>2461.27019999999993</v>
+        <v>3.68089950000000021</v>
       </c>
       <c r="K68" t="n">
-        <v>3.68089950000000021</v>
-      </c>
-      <c r="L68" t="n">
         <v>645.600000000000023</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:12">
       <c r="A69" t="n">
         <v>322357</v>
       </c>
@@ -3126,31 +2920,28 @@
         <v>5624.86399999999958</v>
       </c>
       <c r="E69" t="n">
-        <v>20411211</v>
+        <v>4017.75</v>
       </c>
       <c r="F69" t="n">
-        <v>4017.75</v>
+        <v>12.1347159999999992</v>
       </c>
       <c r="G69" t="n">
-        <v>12.1347159999999992</v>
+        <v>50.482371999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>50.482371999999998</v>
+        <v>1520.99450000000002</v>
       </c>
       <c r="I69" t="n">
-        <v>1520.99450000000002</v>
+        <v>2893.1869999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>2893.1869999999999</v>
+        <v>3.39578649999999982</v>
       </c>
       <c r="K69" t="n">
-        <v>3.39578649999999982</v>
-      </c>
-      <c r="L69" t="n">
         <v>460.699999999999989</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:12">
       <c r="A70" t="n">
         <v>322357</v>
       </c>
@@ -3164,31 +2955,28 @@
         <v>4707.69319999999971</v>
       </c>
       <c r="E70" t="n">
-        <v>20420422</v>
+        <v>4017.75</v>
       </c>
       <c r="F70" t="n">
-        <v>4017.75</v>
+        <v>11.0806889999999996</v>
       </c>
       <c r="G70" t="n">
-        <v>11.0806889999999996</v>
+        <v>50.3087170000000015</v>
       </c>
       <c r="H70" t="n">
-        <v>50.3087170000000015</v>
+        <v>1457.43249999999966</v>
       </c>
       <c r="I70" t="n">
-        <v>1457.43249999999989</v>
+        <v>2133.79570000000012</v>
       </c>
       <c r="J70" t="n">
-        <v>2133.79570000000012</v>
+        <v>2.87423919999999988</v>
       </c>
       <c r="K70" t="n">
-        <v>2.87423919999999988</v>
-      </c>
-      <c r="L70" t="n">
         <v>366.5</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:12">
       <c r="A71" t="n">
         <v>322357</v>
       </c>
@@ -3202,36 +2990,33 @@
         <v>4992.05889999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>20410523</v>
+        <v>3652.5</v>
       </c>
       <c r="F71" t="n">
-        <v>3652.5</v>
+        <v>13.7325289999999995</v>
       </c>
       <c r="G71" t="n">
-        <v>13.7325289999999995</v>
+        <v>49.9498019999999983</v>
       </c>
       <c r="H71" t="n">
-        <v>49.9498019999999983</v>
+        <v>1045.42710000000011</v>
       </c>
       <c r="I71" t="n">
-        <v>1045.42710000000011</v>
+        <v>2923.12089999999989</v>
       </c>
       <c r="J71" t="n">
-        <v>2923.12089999999989</v>
+        <v>4.25159260000000039</v>
       </c>
       <c r="K71" t="n">
-        <v>4.25159260000000039</v>
-      </c>
-      <c r="L71" t="n">
         <v>273.5</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:12">
       <c r="A72" t="n">
         <v>322357</v>
       </c>
       <c r="B72" t="n">
-        <v>16.7852819999999987</v>
+        <v>16.7852819999999952</v>
       </c>
       <c r="C72" t="n">
         <v>-18.5552020000000013</v>
@@ -3240,31 +3025,28 @@
         <v>4352.41079999999965</v>
       </c>
       <c r="E72" t="n">
-        <v>20420829</v>
+        <v>4017.75</v>
       </c>
       <c r="F72" t="n">
-        <v>4017.75</v>
+        <v>10.3665509999999994</v>
       </c>
       <c r="G72" t="n">
-        <v>10.3665509999999994</v>
+        <v>50.9786500000000018</v>
       </c>
       <c r="H72" t="n">
-        <v>50.9786500000000018</v>
+        <v>1530.23479999999995</v>
       </c>
       <c r="I72" t="n">
-        <v>1530.23479999999995</v>
+        <v>1866.83429999999998</v>
       </c>
       <c r="J72" t="n">
-        <v>1866.83429999999998</v>
+        <v>2.54173509999999991</v>
       </c>
       <c r="K72" t="n">
-        <v>2.54173509999999991</v>
-      </c>
-      <c r="L72" t="n">
         <v>205.300000000000011</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:12">
       <c r="A73" t="n">
         <v>322357</v>
       </c>
@@ -3278,31 +3060,28 @@
         <v>4318.44989999999962</v>
       </c>
       <c r="E73" t="n">
-        <v>20410831</v>
+        <v>3652.5</v>
       </c>
       <c r="F73" t="n">
-        <v>3652.5</v>
+        <v>12.9530670000000008</v>
       </c>
       <c r="G73" t="n">
-        <v>12.9530670000000008</v>
+        <v>50.3221040000000031</v>
       </c>
       <c r="H73" t="n">
-        <v>50.3221040000000031</v>
+        <v>1006.31949999999995</v>
       </c>
       <c r="I73" t="n">
-        <v>1006.31949999999995</v>
+        <v>2334.8777</v>
       </c>
       <c r="J73" t="n">
-        <v>2334.8777</v>
+        <v>3.82468770000000013</v>
       </c>
       <c r="K73" t="n">
-        <v>3.82468770000000013</v>
-      </c>
-      <c r="L73" t="n">
         <v>227.300000000000011</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:12">
       <c r="A74" t="n">
         <v>322357</v>
       </c>
@@ -3316,31 +3095,28 @@
         <v>4353.29179999999997</v>
       </c>
       <c r="E74" t="n">
-        <v>20420829</v>
+        <v>4017.75</v>
       </c>
       <c r="F74" t="n">
-        <v>4017.75</v>
+        <v>10.3667840000000009</v>
       </c>
       <c r="G74" t="n">
-        <v>10.3667840000000009</v>
+        <v>50.9784509999999997</v>
       </c>
       <c r="H74" t="n">
-        <v>50.9784509999999997</v>
+        <v>1530.31150000000002</v>
       </c>
       <c r="I74" t="n">
-        <v>1530.31150000000002</v>
+        <v>1867.04060000000004</v>
       </c>
       <c r="J74" t="n">
-        <v>1867.04060000000004</v>
+        <v>2.54184080000000012</v>
       </c>
       <c r="K74" t="n">
-        <v>2.54184080000000012</v>
-      </c>
-      <c r="L74" t="n">
         <v>205.900000000000006</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:12">
       <c r="A75" t="n">
         <v>322357</v>
       </c>
@@ -3354,31 +3130,28 @@
         <v>4318.01910000000044</v>
       </c>
       <c r="E75" t="n">
-        <v>20410831</v>
+        <v>3652.5</v>
       </c>
       <c r="F75" t="n">
-        <v>3652.5</v>
+        <v>12.9529230000000002</v>
       </c>
       <c r="G75" t="n">
-        <v>12.9529230000000002</v>
+        <v>50.3221479999999985</v>
       </c>
       <c r="H75" t="n">
-        <v>50.3221479999999985</v>
+        <v>1006.27530000000002</v>
       </c>
       <c r="I75" t="n">
-        <v>1006.27530000000002</v>
+        <v>2334.69399999999996</v>
       </c>
       <c r="J75" t="n">
-        <v>2334.69399999999996</v>
+        <v>3.8246102999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>3.8246102999999998</v>
-      </c>
-      <c r="L75" t="n">
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:12">
       <c r="A76" t="n">
         <v>322347</v>
       </c>
@@ -3392,31 +3165,28 @@
         <v>4971.85379999999986</v>
       </c>
       <c r="E76" t="n">
-        <v>20440204</v>
+        <v>4017.75</v>
       </c>
       <c r="F76" t="n">
-        <v>4017.75</v>
+        <v>10.8501119999999993</v>
       </c>
       <c r="G76" t="n">
-        <v>10.8501119999999993</v>
+        <v>54.2241199999999992</v>
       </c>
       <c r="H76" t="n">
-        <v>54.2241199999999992</v>
+        <v>1560.36310000000003</v>
       </c>
       <c r="I76" t="n">
-        <v>1560.36310000000003</v>
+        <v>2154.93539999999985</v>
       </c>
       <c r="J76" t="n">
-        <v>2154.93539999999985</v>
+        <v>2.76499130000000015</v>
       </c>
       <c r="K76" t="n">
-        <v>2.76499130000000015</v>
-      </c>
-      <c r="L76" t="n">
         <v>506.600000000000023</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:12">
       <c r="A77" t="n">
         <v>322347</v>
       </c>
@@ -3430,31 +3200,28 @@
         <v>4990.26530000000002</v>
       </c>
       <c r="E77" t="n">
-        <v>20440205</v>
+        <v>4017.75</v>
       </c>
       <c r="F77" t="n">
-        <v>4017.75</v>
+        <v>10.8396190000000008</v>
       </c>
       <c r="G77" t="n">
-        <v>10.8396190000000008</v>
+        <v>54.1654169999999979</v>
       </c>
       <c r="H77" t="n">
-        <v>54.1654169999999979</v>
+        <v>1558.60760000000005</v>
       </c>
       <c r="I77" t="n">
-        <v>1558.60760000000005</v>
+        <v>2146.77570000000014</v>
       </c>
       <c r="J77" t="n">
-        <v>2146.77570000000014</v>
+        <v>2.76006200000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>2.76006200000000002</v>
-      </c>
-      <c r="L77" t="n">
         <v>534.899999999999977</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:12">
       <c r="A78" t="n">
         <v>322237</v>
       </c>
@@ -3468,31 +3235,28 @@
         <v>5522.1211000000003</v>
       </c>
       <c r="E78" t="n">
-        <v>20420104</v>
+        <v>4017.75</v>
       </c>
       <c r="F78" t="n">
-        <v>4017.75</v>
+        <v>9.16907430000000012</v>
       </c>
       <c r="G78" t="n">
-        <v>9.16907430000000012</v>
+        <v>69.1782520000000005</v>
       </c>
       <c r="H78" t="n">
-        <v>69.1782520000000005</v>
+        <v>2224.12219999999979</v>
       </c>
       <c r="I78" t="n">
-        <v>2224.12219999999979</v>
+        <v>1973.48820000000001</v>
       </c>
       <c r="J78" t="n">
-        <v>1973.48820000000001</v>
+        <v>2.02433530000000017</v>
       </c>
       <c r="K78" t="n">
-        <v>2.02433530000000017</v>
-      </c>
-      <c r="L78" t="n">
         <v>574.5</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:12">
       <c r="A79" t="n">
         <v>322237</v>
       </c>
@@ -3506,31 +3270,28 @@
         <v>5523.72279999999955</v>
       </c>
       <c r="E79" t="n">
-        <v>20420104</v>
+        <v>4017.75</v>
       </c>
       <c r="F79" t="n">
-        <v>4017.75</v>
+        <v>9.16933000000000042</v>
       </c>
       <c r="G79" t="n">
-        <v>9.16933000000000042</v>
+        <v>69.1768869999999936</v>
       </c>
       <c r="H79" t="n">
-        <v>69.1768869999999936</v>
+        <v>2223.7184000000002</v>
       </c>
       <c r="I79" t="n">
-        <v>2223.7184000000002</v>
+        <v>1973.2681</v>
       </c>
       <c r="J79" t="n">
-        <v>1973.2681</v>
+        <v>2.02444030000000019</v>
       </c>
       <c r="K79" t="n">
-        <v>2.02444030000000019</v>
-      </c>
-      <c r="L79" t="n">
         <v>576.700000000000045</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:12">
       <c r="A80" t="n">
         <v>322237</v>
       </c>
@@ -3544,31 +3305,28 @@
         <v>4950.84040000000005</v>
       </c>
       <c r="E80" t="n">
-        <v>20420405</v>
+        <v>4017.75</v>
       </c>
       <c r="F80" t="n">
-        <v>4017.75</v>
+        <v>8.77273459999999794</v>
       </c>
       <c r="G80" t="n">
-        <v>8.77273459999999794</v>
+        <v>69.6525780000000196</v>
       </c>
       <c r="H80" t="n">
-        <v>69.6525780000000054</v>
+        <v>2055.09909999999991</v>
       </c>
       <c r="I80" t="n">
-        <v>2055.09909999999991</v>
+        <v>1633.99109999999996</v>
       </c>
       <c r="J80" t="n">
-        <v>1633.99109999999996</v>
+        <v>1.86466719999999988</v>
       </c>
       <c r="K80" t="n">
-        <v>1.86466719999999988</v>
-      </c>
-      <c r="L80" t="n">
         <v>511.800000000000011</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:12">
       <c r="A81" t="n">
         <v>322237</v>
       </c>
@@ -3582,31 +3340,28 @@
         <v>4770.79749999999967</v>
       </c>
       <c r="E81" t="n">
-        <v>20431205</v>
+        <v>4017.75</v>
       </c>
       <c r="F81" t="n">
-        <v>4017.75</v>
+        <v>11.2871670000000002</v>
       </c>
       <c r="G81" t="n">
-        <v>11.2871670000000002</v>
+        <v>55.4338630000000023</v>
       </c>
       <c r="H81" t="n">
-        <v>55.4338630000000023</v>
+        <v>1363.97260000000006</v>
       </c>
       <c r="I81" t="n">
-        <v>1363.97260000000006</v>
+        <v>2103.36059999999998</v>
       </c>
       <c r="J81" t="n">
-        <v>2103.36059999999998</v>
+        <v>2.9735714999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>2.9735714999999999</v>
-      </c>
-      <c r="L81" t="n">
         <v>553.5</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:12">
       <c r="A82" t="n">
         <v>322237</v>
       </c>
@@ -3620,31 +3375,28 @@
         <v>5074.96730000000025</v>
       </c>
       <c r="E82" t="n">
-        <v>20440103</v>
+        <v>4017.75</v>
       </c>
       <c r="F82" t="n">
-        <v>4017.75</v>
+        <v>11.0919240000000006</v>
       </c>
       <c r="G82" t="n">
-        <v>11.0919240000000006</v>
+        <v>55.3284560000000027</v>
       </c>
       <c r="H82" t="n">
-        <v>55.3284560000000027</v>
+        <v>1496.05870000000004</v>
       </c>
       <c r="I82" t="n">
-        <v>1496.05870000000004</v>
+        <v>2196.56230000000005</v>
       </c>
       <c r="J82" t="n">
-        <v>2196.56230000000005</v>
+        <v>2.87960780000000014</v>
       </c>
       <c r="K82" t="n">
-        <v>2.87960780000000014</v>
-      </c>
-      <c r="L82" t="n">
         <v>632.299999999999955</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:12">
       <c r="A83" t="n">
         <v>322257</v>
       </c>
@@ -3658,31 +3410,28 @@
         <v>5253.28909999999996</v>
       </c>
       <c r="E83" t="n">
-        <v>20401107</v>
+        <v>4017.75</v>
       </c>
       <c r="F83" t="n">
-        <v>4017.75</v>
+        <v>13.803725</v>
       </c>
       <c r="G83" t="n">
-        <v>13.803725</v>
+        <v>47.6446820000000031</v>
       </c>
       <c r="H83" t="n">
-        <v>47.6446820000000031</v>
+        <v>1099.39830000000006</v>
       </c>
       <c r="I83" t="n">
-        <v>1099.39830000000006</v>
+        <v>3126.54509999999982</v>
       </c>
       <c r="J83" t="n">
-        <v>3126.54509999999982</v>
+        <v>4.29144729999999974</v>
       </c>
       <c r="K83" t="n">
-        <v>4.29144729999999974</v>
-      </c>
-      <c r="L83" t="n">
         <v>277.300000000000011</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:12">
       <c r="A84" t="n">
         <v>322257</v>
       </c>
@@ -3696,31 +3445,28 @@
         <v>5661.01000000000022</v>
       </c>
       <c r="E84" t="n">
-        <v>20411209</v>
+        <v>4017.75</v>
       </c>
       <c r="F84" t="n">
-        <v>4017.75</v>
+        <v>11.7877370000000017</v>
       </c>
       <c r="G84" t="n">
-        <v>11.7877369999999999</v>
+        <v>49.3180320000000023</v>
       </c>
       <c r="H84" t="n">
-        <v>49.3180320000000023</v>
+        <v>1570.22849999999994</v>
       </c>
       <c r="I84" t="n">
-        <v>1570.22849999999994</v>
+        <v>2742.52039999999988</v>
       </c>
       <c r="J84" t="n">
-        <v>2742.52039999999988</v>
+        <v>3.22016219999999986</v>
       </c>
       <c r="K84" t="n">
-        <v>3.22016219999999986</v>
-      </c>
-      <c r="L84" t="n">
         <v>598.299999999999955</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:12">
       <c r="A85" t="n">
         <v>322257</v>
       </c>
@@ -3734,31 +3480,28 @@
         <v>4750.01159999999982</v>
       </c>
       <c r="E85" t="n">
-        <v>20401225</v>
+        <v>4017.75</v>
       </c>
       <c r="F85" t="n">
-        <v>4017.75</v>
+        <v>13.9748470000000005</v>
       </c>
       <c r="G85" t="n">
-        <v>13.9748470000000005</v>
+        <v>47.8973849999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>47.8973849999999999</v>
+        <v>901.594100000000026</v>
       </c>
       <c r="I85" t="n">
-        <v>901.594100000000026</v>
+        <v>2670.4036000000001</v>
       </c>
       <c r="J85" t="n">
-        <v>2670.4036000000001</v>
+        <v>4.38781540000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>4.38781540000000003</v>
-      </c>
-      <c r="L85" t="n">
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:12">
       <c r="A86" t="n">
         <v>322257</v>
       </c>
@@ -3772,31 +3515,28 @@
         <v>5650.19869999999992</v>
       </c>
       <c r="E86" t="n">
-        <v>20411208</v>
+        <v>4017.75</v>
       </c>
       <c r="F86" t="n">
-        <v>4017.75</v>
+        <v>11.7936610000000002</v>
       </c>
       <c r="G86" t="n">
-        <v>11.7936610000000002</v>
+        <v>49.3174380000000028</v>
       </c>
       <c r="H86" t="n">
-        <v>49.3174380000000028</v>
+        <v>1569.41429999999991</v>
       </c>
       <c r="I86" t="n">
-        <v>1569.41429999999991</v>
+        <v>2745.11259999999993</v>
       </c>
       <c r="J86" t="n">
-        <v>2745.11259999999993</v>
+        <v>3.22312889999999985</v>
       </c>
       <c r="K86" t="n">
-        <v>3.22312889999999985</v>
-      </c>
-      <c r="L86" t="n">
         <v>585.700000000000045</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:12">
       <c r="A87" t="n">
         <v>322257</v>
       </c>
@@ -3810,31 +3550,28 @@
         <v>5429.03870000000006</v>
       </c>
       <c r="E87" t="n">
-        <v>20420212</v>
+        <v>4017.75</v>
       </c>
       <c r="F87" t="n">
-        <v>4017.75</v>
+        <v>11.3340080000000007</v>
       </c>
       <c r="G87" t="n">
-        <v>11.3340080000000007</v>
+        <v>49.3934989999999985</v>
       </c>
       <c r="H87" t="n">
-        <v>49.3934989999999985</v>
+        <v>1649.88110000000006</v>
       </c>
       <c r="I87" t="n">
-        <v>1649.88110000000006</v>
+        <v>2574.27359999999999</v>
       </c>
       <c r="J87" t="n">
-        <v>2574.27359999999999</v>
+        <v>2.99630110000000016</v>
       </c>
       <c r="K87" t="n">
-        <v>2.99630110000000016</v>
-      </c>
-      <c r="L87" t="n">
         <v>455.100000000000023</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:12">
       <c r="A88" t="n">
         <v>322257</v>
       </c>
@@ -3848,31 +3585,28 @@
         <v>3970.61720000000014</v>
       </c>
       <c r="E88" t="n">
-        <v>20401216</v>
+        <v>3652.5</v>
       </c>
       <c r="F88" t="n">
-        <v>3652.5</v>
+        <v>14.0608360000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>14.0608360000000001</v>
+        <v>47.9037229999999994</v>
       </c>
       <c r="H88" t="n">
-        <v>47.9037229999999994</v>
+        <v>712.830699999999979</v>
       </c>
       <c r="I88" t="n">
-        <v>712.830699999999979</v>
+        <v>2154.82250000000022</v>
       </c>
       <c r="J88" t="n">
-        <v>2154.82250000000022</v>
+        <v>4.43654539999999997</v>
       </c>
       <c r="K88" t="n">
-        <v>4.43654539999999997</v>
-      </c>
-      <c r="L88" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:12">
       <c r="A89" t="n">
         <v>322257</v>
       </c>
@@ -3886,31 +3620,28 @@
         <v>5090.73829999999998</v>
       </c>
       <c r="E89" t="n">
-        <v>20420405</v>
+        <v>4017.75</v>
       </c>
       <c r="F89" t="n">
-        <v>4017.75</v>
+        <v>11.6578320000000009</v>
       </c>
       <c r="G89" t="n">
-        <v>11.6578320000000009</v>
+        <v>51.8898420000000016</v>
       </c>
       <c r="H89" t="n">
-        <v>51.8898420000000016</v>
+        <v>1447.16419999999994</v>
       </c>
       <c r="I89" t="n">
-        <v>1447.16419999999994</v>
+        <v>2447.61889999999994</v>
       </c>
       <c r="J89" t="n">
-        <v>2447.61889999999994</v>
+        <v>3.15539190000000014</v>
       </c>
       <c r="K89" t="n">
-        <v>3.15539190000000014</v>
-      </c>
-      <c r="L89" t="n">
         <v>446</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:12">
       <c r="A90" t="n">
         <v>322257</v>
       </c>
@@ -3924,31 +3655,28 @@
         <v>4636.13500000000022</v>
       </c>
       <c r="E90" t="n">
-        <v>20420506</v>
+        <v>4017.75</v>
       </c>
       <c r="F90" t="n">
-        <v>4017.75</v>
+        <v>11.4032339999999994</v>
       </c>
       <c r="G90" t="n">
-        <v>11.4032339999999994</v>
+        <v>51.8515200000000007</v>
       </c>
       <c r="H90" t="n">
-        <v>51.8515200000000007</v>
+        <v>1333.54770000000008</v>
       </c>
       <c r="I90" t="n">
-        <v>1333.54770000000008</v>
+        <v>2117.02370000000019</v>
       </c>
       <c r="J90" t="n">
-        <v>2117.02370000000019</v>
+        <v>3.03002459999999996</v>
       </c>
       <c r="K90" t="n">
-        <v>3.03002459999999996</v>
-      </c>
-      <c r="L90" t="n">
         <v>435.600000000000023</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:12">
       <c r="A91" t="n">
         <v>322257</v>
       </c>
@@ -3962,31 +3690,28 @@
         <v>4417.62060000000019</v>
       </c>
       <c r="E91" t="n">
-        <v>20420825</v>
+        <v>4017.75</v>
       </c>
       <c r="F91" t="n">
-        <v>4017.75</v>
+        <v>10.1136350000000004</v>
       </c>
       <c r="G91" t="n">
-        <v>10.1136350000000004</v>
+        <v>49.678128000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>49.678128000000001</v>
+        <v>1543.3128999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>1543.3128999999999</v>
+        <v>1762.87699999999995</v>
       </c>
       <c r="J91" t="n">
-        <v>1762.87699999999995</v>
+        <v>2.42818690000000004</v>
       </c>
       <c r="K91" t="n">
-        <v>2.42818690000000004</v>
-      </c>
-      <c r="L91" t="n">
         <v>361.399999999999977</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:12">
       <c r="A92" t="n">
         <v>322257</v>
       </c>
@@ -4000,27 +3725,24 @@
         <v>4340.84360000000015</v>
       </c>
       <c r="E92" t="n">
-        <v>20410830</v>
+        <v>3652.5</v>
       </c>
       <c r="F92" t="n">
-        <v>3652.5</v>
+        <v>12.5509590000000006</v>
       </c>
       <c r="G92" t="n">
-        <v>12.5509590000000006</v>
+        <v>49.2172699999999992</v>
       </c>
       <c r="H92" t="n">
-        <v>49.2172699999999992</v>
+        <v>1043.2650000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>1043.2650000000001</v>
+        <v>2196.38580000000002</v>
       </c>
       <c r="J92" t="n">
-        <v>2196.38580000000002</v>
+        <v>3.61140540000000021</v>
       </c>
       <c r="K92" t="n">
-        <v>3.61140540000000021</v>
-      </c>
-      <c r="L92" t="n">
         <v>351.199999999999989</v>
       </c>
     </row>
@@ -4028,7 +3750,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1591621788" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1591622562" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4037,8 +3759,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1591621788" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1591621788" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1591622562" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1591622562" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -4047,7 +3769,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591621788" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591622562" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
